--- a/Third-Year/BfK-B/3_Internes Recnungswesen/1_Kostenartenrechnung/03_KLR_Kostenarten_Afg.xlsx
+++ b/Third-Year/BfK-B/3_Internes Recnungswesen/1_Kostenartenrechnung/03_KLR_Kostenarten_Afg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20390"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pi\Desktop\it.schule\BWL\gewerblich\BWL 3. LJ\2_Kosten- und Leistungsrechnung\2_Kostenartenrechnung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Valarius\H4ck3r\source\School\Third-Year\BfK-B\3_Internes Recnungswesen\1_Kostenartenrechnung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96D019B-259C-4C6E-910E-DCDE6996D4F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A364C980-C901-4B22-86ED-3A47A5902EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="100" windowWidth="9700" windowHeight="6790" tabRatio="790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19350" yWindow="1980" windowWidth="18900" windowHeight="10965" tabRatio="790" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GuV" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,19 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">Kostenartenrechnung!$A$1:$E$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -389,15 +402,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -461,7 +472,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1412,214 +1423,214 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:D12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.08984375" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" customWidth="1"/>
-    <col min="3" max="3" width="21.453125" customWidth="1"/>
-    <col min="4" max="4" width="16.08984375" customWidth="1"/>
-    <col min="5" max="5" width="4.90625" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-    </row>
-    <row r="2" spans="1:8" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="36" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+    </row>
+    <row r="2" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38"/>
-      <c r="F3" s="30" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="36"/>
+      <c r="F3" s="28" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="33" t="s">
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34" t="s">
+      <c r="B4" s="32"/>
+      <c r="C4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="F4" s="3" t="s">
+      <c r="D4" s="33"/>
+      <c r="F4" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="24"/>
-      <c r="B5" s="25" t="s">
+    <row r="5" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
+      <c r="B5" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="24" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+    <row r="6" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="19">
         <v>650</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="21">
         <v>1500</v>
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="8">
         <v>945</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="12">
         <v>160</v>
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="8">
         <v>160</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="12">
         <v>80</v>
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="8">
         <v>330</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="12">
         <v>300</v>
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="8">
         <v>10</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="12">
         <v>125</v>
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="25" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+    <row r="11" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="8">
         <v>40</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="12">
         <v>40</v>
       </c>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="8">
         <v>45</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="12">
         <v>15</v>
       </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="8">
         <f>SUM(D6:D12)-SUM(B6:B12)</f>
         <v>40</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="14"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="16"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="11"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18">
+    <row r="15" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16">
         <f>SUM(B6:B14)</f>
         <v>2220</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19">
+      <c r="C15" s="16"/>
+      <c r="D15" s="17">
         <f>SUM(D6:D14)</f>
         <v>2220</v>
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1644,155 +1655,155 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
+    <sheetView zoomScale="120" workbookViewId="0">
       <selection activeCell="H5" sqref="H5:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6328125" customWidth="1"/>
-    <col min="2" max="2" width="5.453125" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="6.54296875" customWidth="1"/>
-    <col min="5" max="5" width="18.6328125" customWidth="1"/>
-    <col min="6" max="6" width="5.453125" customWidth="1"/>
-    <col min="7" max="7" width="17.54296875" customWidth="1"/>
-    <col min="8" max="8" width="5.54296875" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="13" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9" t="s">
+      <c r="F3" s="7"/>
+      <c r="G3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="27" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="14"/>
-    </row>
-    <row r="6" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="14"/>
-    </row>
-    <row r="7" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="14"/>
-    </row>
-    <row r="8" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28"/>
-    </row>
-    <row r="9" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29">
+    <row r="5" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
+    </row>
+    <row r="9" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27">
         <f>SUM(B5:B9)</f>
         <v>0</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29">
+      <c r="C10" s="27"/>
+      <c r="D10" s="27">
         <f>SUM(D5:D9)</f>
         <v>0</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29">
+      <c r="E10" s="27"/>
+      <c r="F10" s="27">
         <f>SUM(F5:F9)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29">
+      <c r="G10" s="27"/>
+      <c r="H10" s="27">
         <f>SUM(H5:H9)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="13" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="13" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="13" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1805,175 +1816,127 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.453125" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5">
+        <v>650</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5">
+        <v>315</v>
+      </c>
+      <c r="D5" s="5">
+        <v>630</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="3" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6">
+        <v>53.33</v>
+      </c>
+      <c r="D6" s="6">
+        <v>106.67</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="20" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:5" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5">
+        <v>330</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" ht="52.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="31" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5">
+        <v>45</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="13" spans="1:5" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="C13" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="13" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
